--- a/health_records.xlsx
+++ b/health_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -79,11 +79,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.09765625"/>
+    <col min="1" max="1" customWidth="true" width="18.09765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -392,126 +389,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45437</v>
-      </c>
-      <c r="B2" s="0">
-        <v>155.4</v>
-      </c>
-      <c r="C2" s="0">
-        <v>50.2</v>
-      </c>
-      <c r="D2" s="0">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45438</v>
-      </c>
-      <c r="B3" s="0">
-        <v>155.6</v>
-      </c>
-      <c r="C3" s="0">
-        <v>50.5</v>
-      </c>
-      <c r="D3" s="0">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45439</v>
-      </c>
-      <c r="B4" s="0">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="C4" s="0">
-        <v>51</v>
-      </c>
-      <c r="D4" s="0">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45440</v>
-      </c>
-      <c r="B5" s="0">
-        <v>156</v>
-      </c>
-      <c r="C5" s="0">
-        <v>51.6</v>
-      </c>
-      <c r="D5" s="0">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45441</v>
-      </c>
-      <c r="B6" s="0">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="C6" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B7" t="n" s="0">
-        <v>170.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>70.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>156.2</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>52.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>21.31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>156.2</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>52.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>21.31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>156.2</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>52.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>21.31</v>
+      <c r="B2" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>23.42</v>
       </c>
     </row>
   </sheetData>

--- a/health_records.xlsx
+++ b/health_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -402,6 +405,20 @@
         <v>23.42</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>23.42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
